--- a/02_Boards/01_Energex8PCB_v1.0/02_Board_Outputs/02_BoM/BoM.xlsx
+++ b/02_Boards/01_Energex8PCB_v1.0/02_Board_Outputs/02_BoM/BoM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Antonio\Mi unidad\PROYECTOS\01_Energex8\02_Boards\01_Energex8PCB_v1.0\02_Board_Outputs\02_BoM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCB313A-5BBE-489F-B69B-0297254BEC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9879BE-6FF5-409F-88FF-F86601B8DC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>Quantity</t>
   </si>
@@ -156,6 +156,42 @@
   </si>
   <si>
     <t>https://www.digikey.es/es/products/detail/w%C3%BCrth-elektronik/61300211121/4846823?s=N4IgTCBcDaIGwEYDMAGFYGYyAugXyA</t>
+  </si>
+  <si>
+    <t>Stackpole Electronics Inc</t>
+  </si>
+  <si>
+    <t>RMCF1206JT510R</t>
+  </si>
+  <si>
+    <t>RES 510 OHM 5% 1/4W 1206</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/es/products/detail/stackpole-electronics-inc/RMCF1206JT510R/1753855</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/es/products/detail/te-connectivity-passive-product/3503G2B100RFTD/16808729</t>
+  </si>
+  <si>
+    <t>TE Connectivity Passive Product</t>
+  </si>
+  <si>
+    <t>3503G2B100RFTD</t>
+  </si>
+  <si>
+    <t>RES 100 OHM 1% 2W 1206</t>
+  </si>
+  <si>
+    <t>KYOCERA AVX</t>
+  </si>
+  <si>
+    <t>SD1206S040S2R0</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 40V 2A 1206</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/es/products/detail/kyocera-avx/SD1206S040S2R0/3749537</t>
   </si>
 </sst>
 </file>
@@ -723,12 +759,6 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -740,6 +770,12 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1123,12 +1159,12 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="37.5703125" customWidth="1"/>
     <col min="4" max="4" width="60.42578125" customWidth="1"/>
@@ -1138,15 +1174,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1172,49 +1208,73 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="A3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1">
         <v>12</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="A4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="3">
         <v>8</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="12" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="A5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="1">
         <v>12</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -1232,10 +1292,10 @@
       <c r="E6" s="3">
         <v>6</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1255,10 +1315,10 @@
       <c r="E7" s="1">
         <v>12</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1278,10 +1338,10 @@
       <c r="E8" s="3">
         <v>11</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="12" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1301,10 +1361,10 @@
       <c r="E9" s="1">
         <v>18</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1324,10 +1384,10 @@
       <c r="E10" s="3">
         <v>13</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="12" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1347,10 +1407,10 @@
       <c r="E11" s="1">
         <v>8</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1370,8 +1430,11 @@
     <hyperlink ref="G9" r:id="rId4" xr:uid="{EC31F556-E064-4E09-A4BE-80F5581364E2}"/>
     <hyperlink ref="G10" r:id="rId5" xr:uid="{A42D49D8-24FC-4190-AC1A-0A1DC90E95B5}"/>
     <hyperlink ref="G11" r:id="rId6" xr:uid="{BF9D18D9-7EB6-481A-9DDE-28A651C07682}"/>
+    <hyperlink ref="G4" r:id="rId7" xr:uid="{5C94BA1D-4107-4727-9F7A-DD7EA21DC4A6}"/>
+    <hyperlink ref="G3" r:id="rId8" xr:uid="{00BFEBE7-6BCE-4EE9-A5B2-BE07F73B931E}"/>
+    <hyperlink ref="G5" r:id="rId9" xr:uid="{39DDD1CF-ED26-430A-96CC-444AB605A148}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>